--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H2">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>1.4084989308</v>
+        <v>0.03713543203066667</v>
       </c>
       <c r="R2">
-        <v>12.6764903772</v>
+        <v>0.334218888276</v>
       </c>
       <c r="S2">
-        <v>0.00975160631715139</v>
+        <v>0.002214563345498537</v>
       </c>
       <c r="T2">
-        <v>0.00975160631715139</v>
+        <v>0.002214563345498537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H3">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I3">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J3">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>86.44938620409</v>
+        <v>6.948768775675999</v>
       </c>
       <c r="R3">
-        <v>778.0444758368101</v>
+        <v>62.538918981084</v>
       </c>
       <c r="S3">
-        <v>0.5985239762609157</v>
+        <v>0.4143883021005088</v>
       </c>
       <c r="T3">
-        <v>0.5985239762609157</v>
+        <v>0.4143883021005088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H4">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I4">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J4">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>24.26025868344</v>
+        <v>2.026447799139111</v>
       </c>
       <c r="R4">
-        <v>218.34232815096</v>
+        <v>18.238030192252</v>
       </c>
       <c r="S4">
-        <v>0.1679635579835261</v>
+        <v>0.1208467701098425</v>
       </c>
       <c r="T4">
-        <v>0.1679635579835262</v>
+        <v>0.1208467701098425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.116376</v>
       </c>
       <c r="I5">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J5">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>0.05070528181333333</v>
+        <v>0.016631798456</v>
       </c>
       <c r="R5">
-        <v>0.45634753632</v>
+        <v>0.149686186104</v>
       </c>
       <c r="S5">
-        <v>0.0003510531216115303</v>
+        <v>0.0009918336536373273</v>
       </c>
       <c r="T5">
-        <v>0.0003510531216115303</v>
+        <v>0.0009918336536373271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.116376</v>
       </c>
       <c r="I6">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J6">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>3.112136185704001</v>
+        <v>3.112136185703999</v>
       </c>
       <c r="R6">
-        <v>28.009225671336</v>
+        <v>28.00922567133599</v>
       </c>
       <c r="S6">
-        <v>0.02154657431731901</v>
+        <v>0.185591558955561</v>
       </c>
       <c r="T6">
-        <v>0.02154657431731901</v>
+        <v>0.185591558955561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.116376</v>
       </c>
       <c r="I7">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J7">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>0.8733576053973334</v>
+        <v>0.9075825844453334</v>
       </c>
       <c r="R7">
-        <v>7.860218448576</v>
+        <v>8.168243260007999</v>
       </c>
       <c r="S7">
-        <v>0.006046607033693354</v>
+        <v>0.05412348839420202</v>
       </c>
       <c r="T7">
-        <v>0.006046607033693354</v>
+        <v>0.05412348839420201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H8">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I8">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J8">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>0.3553125480088888</v>
+        <v>0.015328419736</v>
       </c>
       <c r="R8">
-        <v>3.19781293208</v>
+        <v>0.137955777624</v>
       </c>
       <c r="S8">
-        <v>0.002459972110705586</v>
+        <v>0.0009141069494958167</v>
       </c>
       <c r="T8">
-        <v>0.002459972110705586</v>
+        <v>0.0009141069494958169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H9">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I9">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J9">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>21.808004972026</v>
+        <v>2.868248425223999</v>
       </c>
       <c r="R9">
-        <v>196.272044748234</v>
+        <v>25.814235827016</v>
       </c>
       <c r="S9">
-        <v>0.1509856162467154</v>
+        <v>0.1710473658429371</v>
       </c>
       <c r="T9">
-        <v>0.1509856162467154</v>
+        <v>0.1710473658429372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H10">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I10">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J10">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>6.119972219838222</v>
+        <v>0.8364583563386667</v>
       </c>
       <c r="R10">
-        <v>55.079749978544</v>
+        <v>7.528125207048</v>
       </c>
       <c r="S10">
-        <v>0.04237103660836192</v>
+        <v>0.04988201064831693</v>
       </c>
       <c r="T10">
-        <v>0.04237103660836192</v>
+        <v>0.04988201064831693</v>
       </c>
     </row>
   </sheetData>
